--- a/biology/Médecine/Dicyclovérine/Dicyclovérine.xlsx
+++ b/biology/Médecine/Dicyclovérine/Dicyclovérine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dicyclov%C3%A9rine</t>
+          <t>Dicyclovérine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dicyclovérine, également connue sous le nom dicyclomine, est un médicament utilisé pour traiter les spasmes intestinaux tels que ceux qui surviennent dans le syndrome du côlon irritable[1],[2].
-Les effets secondaires courants comprennent la bouche sèche, la vision floue, la faiblesse, la somnolence et les étourdissements [2]. Les effets secondaires graves peuvent inclure une psychose et des problèmes respiratoires chez l'enfant[2]. L'utilisation pendant la grossesse semble être sans danger tandis que l'utilisation pendant l'allaitement n'est pas recommandée[3].
-La dicyclovérine a été approuvée pour  l'usage médical aux États-Unis en 1950[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dicyclovérine, également connue sous le nom dicyclomine, est un médicament utilisé pour traiter les spasmes intestinaux tels que ceux qui surviennent dans le syndrome du côlon irritable,.
+Les effets secondaires courants comprennent la bouche sèche, la vision floue, la faiblesse, la somnolence et les étourdissements . Les effets secondaires graves peuvent inclure une psychose et des problèmes respiratoires chez l'enfant. L'utilisation pendant la grossesse semble être sans danger tandis que l'utilisation pendant l'allaitement n'est pas recommandée.
+La dicyclovérine a été approuvée pour  l'usage médical aux États-Unis en 1950.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dicyclov%C3%A9rine</t>
+          <t>Dicyclovérine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Utilisations médicales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dicyclomine est utilisée pour le traitement symptomatique du syndrome du côlon irritable, en particulier l'hypermotilité, chez l'adulte[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dicyclomine est utilisée pour le traitement symptomatique du syndrome du côlon irritable, en particulier l'hypermotilité, chez l'adulte,.
 </t>
         </is>
       </c>
